--- a/newmandate.xlsx
+++ b/newmandate.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jia yi\Desktop\dbs timesheet\Codes Python DBS\CyberSecurityCryptographyML_DataframeCheck\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jia yi\Desktop\dbs timesheet\Codes Python DBS\CyberSecurityCryptographyML_Hashing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09B675C5-54EB-4CAD-91E9-C7D1973681B4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C84FEF7-B11E-4B92-AF09-DAC8494B2B5B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{7D37D59E-D5F8-41A4-A5ED-2ABE66DC3401}"/>
+    <workbookView xWindow="3480" yWindow="3480" windowWidth="14400" windowHeight="7360" xr2:uid="{7D37D59E-D5F8-41A4-A5ED-2ABE66DC3401}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -445,7 +445,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -477,6 +477,9 @@
       <c r="A2">
         <v>1234567</v>
       </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
       <c r="D2" t="s">
         <v>8</v>
       </c>
@@ -490,9 +493,6 @@
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1234567</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
